--- a/benchmarking/results/llama3_v1_05082024_eval.xlsx
+++ b/benchmarking/results/llama3_v1_05082024_eval.xlsx
@@ -595,12 +595,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -705,12 +705,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -802,12 +802,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -913,12 +913,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1660,12 +1660,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1900,12 +1900,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -2656,12 +2656,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -2852,12 +2852,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -3196,12 +3196,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -4637,12 +4637,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -4852,12 +4852,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -5085,12 +5085,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M56" t="n">
